--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -8,18 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="CompletedStatus" localSheetId="0">Sheet2!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="82">
   <si>
     <t>Task Item</t>
   </si>
@@ -250,6 +249,21 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>R-Tree</t>
+  </si>
+  <si>
+    <t>Add kNN Search</t>
+  </si>
+  <si>
+    <t>Adjust Tree (make node1 update instead of delete and insert entry)</t>
+  </si>
+  <si>
+    <t>Save Index</t>
   </si>
 </sst>
 </file>
@@ -285,13 +299,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006000"/>
@@ -322,50 +337,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -386,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D74" totalsRowShown="0">
-  <autoFilter ref="A1:D74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D150" totalsRowShown="0">
+  <autoFilter ref="A1:D150">
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="4">
@@ -685,15 +656,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="25.42578125" customWidth="1"/>
+    <col min="1" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="16384" width="25.42578125" hidden="1"/>
   </cols>
   <sheetData>
@@ -1733,8 +1706,56 @@
         <v>74</v>
       </c>
     </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D74">
+  <conditionalFormatting sqref="A2:D150">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>($D2="Not Started")</formula>
     </cfRule>
@@ -1746,7 +1767,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D74">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D150">
       <formula1>CompletedStatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -1786,16 +1807,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -1717,7 +1717,7 @@
         <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:4">

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>Task Item</t>
   </si>
@@ -264,6 +264,36 @@
   </si>
   <si>
     <t>Save Index</t>
+  </si>
+  <si>
+    <t>Split - Reuse original Node</t>
+  </si>
+  <si>
+    <t>R*-Tree</t>
+  </si>
+  <si>
+    <t>ChooseLeaf Algorithm</t>
+  </si>
+  <si>
+    <t>Split Algorithm</t>
+  </si>
+  <si>
+    <t>Forced ReInsert</t>
+  </si>
+  <si>
+    <t>FR-Tree</t>
+  </si>
+  <si>
+    <t>Psuedo-code</t>
+  </si>
+  <si>
+    <t>FR*-Tree</t>
+  </si>
+  <si>
+    <t>FR*e-Tree</t>
+  </si>
+  <si>
+    <t>R#-Tree</t>
   </si>
 </sst>
 </file>
@@ -658,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1745,6 +1775,118 @@
         <v>81</v>
       </c>
       <c r="D77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" t="s">
         <v>74</v>
       </c>
     </row>

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="96">
   <si>
     <t>Task Item</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>R#-Tree</t>
+  </si>
+  <si>
+    <t>Update Split to use Pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t>All Trees</t>
+  </si>
+  <si>
+    <t>Handle Deletion of Page</t>
   </si>
 </sst>
 </file>
@@ -688,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1817,7 +1829,7 @@
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1831,7 +1843,7 @@
         <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1887,6 +1899,48 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="s">
         <v>74</v>
       </c>
     </row>

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="98">
   <si>
     <t>Task Item</t>
   </si>
@@ -305,7 +305,13 @@
     <t>All Trees</t>
   </si>
   <si>
-    <t>Handle Deletion of Page</t>
+    <t>Deletion - Should reinsert node into tree not leaves</t>
+  </si>
+  <si>
+    <t>Handle Deletion of Page in  Cache</t>
+  </si>
+  <si>
+    <t>Handle Addition of Page in Cache</t>
   </si>
 </sst>
 </file>
@@ -701,7 +707,7 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1938,9 +1944,37 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" t="s">
         <v>95</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" t="s">
         <v>74</v>
       </c>
     </row>

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1849,7 +1849,7 @@
         <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:4">

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="90">
   <si>
     <t>Task Item</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Sub Category</t>
   </si>
   <si>
-    <t>Proofread</t>
-  </si>
-  <si>
     <t>Paper</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
     <t>Background</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>FR*e</t>
-  </si>
-  <si>
     <t>R# Tree</t>
   </si>
   <si>
@@ -137,30 +128,6 @@
     <t>Real 100,000 R*</t>
   </si>
   <si>
-    <t>Uniform 10,000 FR*</t>
-  </si>
-  <si>
-    <t>Real 10,000 FR*</t>
-  </si>
-  <si>
-    <t>Uniform 100,000 FR*</t>
-  </si>
-  <si>
-    <t>Real 100,000 FR*</t>
-  </si>
-  <si>
-    <t>Uniform 10,000 FR*e</t>
-  </si>
-  <si>
-    <t>Real 10,000 FR*e</t>
-  </si>
-  <si>
-    <t>Uniform 100,000 FR*e</t>
-  </si>
-  <si>
-    <t>Real 100,000 FR*e</t>
-  </si>
-  <si>
     <t>Uniform 10,000 R#</t>
   </si>
   <si>
@@ -281,18 +248,9 @@
     <t>Forced ReInsert</t>
   </si>
   <si>
-    <t>FR-Tree</t>
-  </si>
-  <si>
     <t>Psuedo-code</t>
   </si>
   <si>
-    <t>FR*-Tree</t>
-  </si>
-  <si>
-    <t>FR*e-Tree</t>
-  </si>
-  <si>
     <t>R#-Tree</t>
   </si>
   <si>
@@ -312,6 +270,24 @@
   </si>
   <si>
     <t>Handle Addition of Page in Cache</t>
+  </si>
+  <si>
+    <t>ProoFR</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Uniform 10,000 FR</t>
+  </si>
+  <si>
+    <t>Real 10,000 FR</t>
+  </si>
+  <si>
+    <t>Uniform 100,000 FR</t>
+  </si>
+  <si>
+    <t>Real 100,000 FR</t>
   </si>
 </sst>
 </file>
@@ -357,11 +333,11 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF006000"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -377,11 +353,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -405,8 +381,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D150" totalsRowShown="0">
-  <autoFilter ref="A1:D150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D149" totalsRowShown="0">
+  <autoFilter ref="A1:D149">
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="4">
@@ -704,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -729,1275 +705,1261 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" t="s">
         <v>77</v>
       </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" t="s">
         <v>78</v>
       </c>
-      <c r="C86" t="s">
-        <v>92</v>
-      </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>77</v>
-      </c>
-      <c r="B90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D150">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>($D2="Not Started")</formula>
+  <conditionalFormatting sqref="A2:D149">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>($D2="Completed")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>($D2="Started")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>($D2="Completed")</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>($D2="Not Started")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D150">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D149">
       <formula1>CompletedStatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -2021,17 +1983,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1909,7 +1909,7 @@
         <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1923,7 +1923,7 @@
         <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1937,7 +1937,7 @@
         <v>83</v>
       </c>
       <c r="D89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:4">

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="24855" windowHeight="12240"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="101">
   <si>
     <t>Task Item</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Proofread</t>
+  </si>
+  <si>
+    <t>Test Build Index</t>
+  </si>
+  <si>
+    <t>Test Queries</t>
+  </si>
+  <si>
+    <t>Test Save Index</t>
   </si>
 </sst>
 </file>
@@ -434,67 +443,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -909,8 +858,8 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -918,6 +867,7 @@
     <col min="1" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="16384" width="25.42578125" hidden="1"/>
   </cols>
   <sheetData>
@@ -927,19 +877,19 @@
       </c>
       <c r="B1" s="6">
         <f>COUNTA(E3:E150)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4">
         <f>COUNTIF(E3:E151,"Completed")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5">
         <f>COUNTIF(E3:E151, "Started")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3">
         <f>COUNTIF(E3:E151, "Not Started")</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2006,7 +1956,7 @@
         <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="2:5">
@@ -2269,10 +2219,10 @@
         <v>67</v>
       </c>
       <c r="D96" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="2:5">
@@ -2283,7 +2233,7 @@
         <v>75</v>
       </c>
       <c r="D97" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E97" t="s">
         <v>63</v>
@@ -2297,10 +2247,10 @@
         <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="2:5">
@@ -2311,7 +2261,7 @@
         <v>93</v>
       </c>
       <c r="D99" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E99" t="s">
         <v>63</v>
@@ -2325,7 +2275,7 @@
         <v>94</v>
       </c>
       <c r="D100" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E100" t="s">
         <v>63</v>
@@ -2370,6 +2320,90 @@
         <v>95</v>
       </c>
       <c r="E103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" t="s">
+        <v>99</v>
+      </c>
+      <c r="E108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2392,14 +2426,14 @@
       <c r="E150" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:C150 E3:E150 D4:D150">
-    <cfRule type="expression" dxfId="14" priority="4">
+  <conditionalFormatting sqref="A3:C150 E3:E150 D4:D150 A104:E109">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>($E3="Completed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>($E3="Started")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>($E3="Not Started")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="104">
   <si>
     <t>Task Item</t>
   </si>
@@ -321,6 +321,15 @@
   </si>
   <si>
     <t>Test Save Index</t>
+  </si>
+  <si>
+    <t>Clean up Page Faults</t>
+  </si>
+  <si>
+    <t>Change Address from Guid to new type</t>
+  </si>
+  <si>
+    <t>Change Record to not store</t>
   </si>
 </sst>
 </file>
@@ -443,37 +452,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -858,8 +837,8 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -877,19 +856,19 @@
       </c>
       <c r="B1" s="6">
         <f>COUNTA(E3:E150)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="4">
         <f>COUNTIF(E3:E151,"Completed")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5">
         <f>COUNTIF(E3:E151, "Started")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3">
         <f>COUNTIF(E3:E151, "Not Started")</f>
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2152,7 +2131,7 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="2:5">
@@ -2166,7 +2145,7 @@
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="2:5">
@@ -2180,7 +2159,7 @@
         <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="2:5">
@@ -2194,7 +2173,7 @@
         <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="2:5">
@@ -2208,7 +2187,7 @@
         <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="2:5">
@@ -2334,7 +2313,7 @@
         <v>99</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="2:5">
@@ -2362,7 +2341,7 @@
         <v>99</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="2:5">
@@ -2404,6 +2383,48 @@
         <v>100</v>
       </c>
       <c r="E109" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2427,24 +2448,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:C150 E3:E150 D4:D150 A104:E109">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>($E3="Completed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>($E3="Started")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>($E3="Not Started")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>($E3="Completed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>($E3="Started")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>($E3="Not Started")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -837,8 +837,8 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -860,15 +860,15 @@
       </c>
       <c r="C1" s="4">
         <f>COUNTIF(E3:E151,"Completed")</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5">
         <f>COUNTIF(E3:E151, "Started")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3">
         <f>COUNTIF(E3:E151, "Not Started")</f>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1935,7 +1935,7 @@
         <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="2:5">
@@ -2411,7 +2411,7 @@
         <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="2:5">

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -837,8 +837,8 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -860,15 +860,15 @@
       </c>
       <c r="C1" s="4">
         <f>COUNTIF(E3:E151,"Completed")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5">
         <f>COUNTIF(E3:E151, "Started")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3">
         <f>COUNTIF(E3:E151, "Not Started")</f>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2229,7 +2229,7 @@
         <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="2:5">
@@ -2341,7 +2341,7 @@
         <v>99</v>
       </c>
       <c r="E106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="2:5">
@@ -2383,7 +2383,7 @@
         <v>100</v>
       </c>
       <c r="E109" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="2:5">

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -837,8 +837,8 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -860,15 +860,15 @@
       </c>
       <c r="C1" s="4">
         <f>COUNTIF(E3:E151,"Completed")</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5">
         <f>COUNTIF(E3:E151, "Started")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E1" s="3">
         <f>COUNTIF(E3:E151, "Not Started")</f>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2131,7 +2131,7 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="2:5">
@@ -2145,7 +2145,7 @@
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="2:5">
@@ -2159,7 +2159,7 @@
         <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="2:5">
@@ -2173,7 +2173,7 @@
         <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="2:5">
@@ -2187,7 +2187,7 @@
         <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="2:5">
@@ -2243,7 +2243,7 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="2:5">
@@ -2257,7 +2257,7 @@
         <v>98</v>
       </c>
       <c r="E100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -2355,7 +2355,7 @@
         <v>99</v>
       </c>
       <c r="E107" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="2:5">
@@ -2369,7 +2369,7 @@
         <v>99</v>
       </c>
       <c r="E108" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="2:5">

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -837,8 +837,8 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -860,15 +860,15 @@
       </c>
       <c r="C1" s="4">
         <f>COUNTIF(E3:E151,"Completed")</f>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5">
         <f>COUNTIF(E3:E151, "Started")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3">
         <f>COUNTIF(E3:E151, "Not Started")</f>
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -899,7 +899,7 @@
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -913,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -927,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -941,7 +941,7 @@
         <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -983,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -997,7 +997,7 @@
         <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1011,7 +1011,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1039,7 +1039,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,7 +1053,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -1095,7 +1095,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1123,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1151,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -1179,7 +1179,7 @@
         <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -1207,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1221,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1235,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1319,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -1333,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -1347,7 +1347,7 @@
         <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1361,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1375,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1389,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:5">

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="103">
   <si>
     <t>Task Item</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>R#-Tree</t>
-  </si>
-  <si>
-    <t>Update Split to use Pair</t>
   </si>
   <si>
     <t xml:space="preserve">Code </t>
@@ -533,8 +530,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E150" totalsRowShown="0">
-  <autoFilter ref="A2:E150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E148" totalsRowShown="0">
+  <autoFilter ref="A2:E148">
     <filterColumn colId="0"/>
     <filterColumn colId="4"/>
   </autoFilter>
@@ -834,11 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -852,28 +849,28 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="6">
-        <f>COUNTA(E3:E150)</f>
-        <v>110</v>
+        <f>COUNTA(E3:E148)</f>
+        <v>108</v>
       </c>
       <c r="C1" s="4">
-        <f>COUNTIF(E3:E151,"Completed")</f>
+        <f>COUNTIF(E3:E149,"Completed")</f>
         <v>60</v>
       </c>
       <c r="D1" s="5">
-        <f>COUNTIF(E3:E151, "Started")</f>
+        <f>COUNTIF(E3:E149, "Started")</f>
         <v>2</v>
       </c>
       <c r="E1" s="3">
-        <f>COUNTIF(E3:E151, "Not Started")</f>
-        <v>48</v>
+        <f>COUNTIF(E3:E149, "Not Started")</f>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -896,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -938,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
@@ -991,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
@@ -1005,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1019,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1033,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1047,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1061,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1075,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1089,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>65</v>
@@ -1103,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1117,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1176,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
         <v>65</v>
@@ -1274,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
         <v>63</v>
@@ -1344,7 +1341,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
         <v>65</v>
@@ -1554,7 +1551,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
         <v>63</v>
@@ -1568,7 +1565,7 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
         <v>63</v>
@@ -1582,7 +1579,7 @@
         <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
         <v>63</v>
@@ -1596,7 +1593,7 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
         <v>63</v>
@@ -1610,7 +1607,7 @@
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
@@ -1624,7 +1621,7 @@
         <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
         <v>63</v>
@@ -1638,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
         <v>63</v>
@@ -1652,7 +1649,7 @@
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
@@ -1985,7 +1982,7 @@
         <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
         <v>74</v>
@@ -1999,7 +1996,7 @@
         <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
         <v>74</v>
@@ -2024,16 +2021,16 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="2:5">
@@ -2041,21 +2038,21 @@
         <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
         <v>77</v>
-      </c>
-      <c r="C86" t="s">
-        <v>78</v>
       </c>
       <c r="D86" t="s">
         <v>80</v>
@@ -2069,10 +2066,10 @@
         <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D87" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E87" t="s">
         <v>65</v>
@@ -2083,10 +2080,10 @@
         <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E88" t="s">
         <v>65</v>
@@ -2097,13 +2094,13 @@
         <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E89" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="2:5">
@@ -2111,13 +2108,13 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" t="s">
         <v>89</v>
       </c>
-      <c r="D90" t="s">
-        <v>90</v>
-      </c>
       <c r="E90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="2:5">
@@ -2125,10 +2122,10 @@
         <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" t="s">
         <v>63</v>
@@ -2142,10 +2139,10 @@
         <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="2:5">
@@ -2153,13 +2150,13 @@
         <v>66</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="2:5">
@@ -2167,10 +2164,10 @@
         <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
         <v>65</v>
@@ -2181,13 +2178,13 @@
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="2:5">
@@ -2195,10 +2192,10 @@
         <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E96" t="s">
         <v>65</v>
@@ -2209,13 +2206,13 @@
         <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="2:5">
@@ -2223,10 +2220,10 @@
         <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E98" t="s">
         <v>65</v>
@@ -2237,13 +2234,13 @@
         <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D99" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E99" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="2:5">
@@ -2251,13 +2248,13 @@
         <v>66</v>
       </c>
       <c r="C100" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" t="s">
         <v>94</v>
       </c>
-      <c r="D100" t="s">
-        <v>98</v>
-      </c>
       <c r="E100" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -2265,10 +2262,10 @@
         <v>66</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E101" t="s">
         <v>63</v>
@@ -2279,13 +2276,13 @@
         <v>66</v>
       </c>
       <c r="C102" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D102" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="2:5">
@@ -2293,10 +2290,10 @@
         <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D103" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E103" t="s">
         <v>63</v>
@@ -2307,10 +2304,10 @@
         <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E104" t="s">
         <v>65</v>
@@ -2321,13 +2318,13 @@
         <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="2:5">
@@ -2335,10 +2332,10 @@
         <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" t="s">
         <v>65</v>
@@ -2349,7 +2346,7 @@
         <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
         <v>99</v>
@@ -2363,13 +2360,13 @@
         <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E108" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="2:5">
@@ -2377,10 +2374,10 @@
         <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E109" t="s">
         <v>65</v>
@@ -2391,42 +2388,26 @@
         <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E110" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
-      <c r="B111" t="s">
-        <v>66</v>
-      </c>
-      <c r="C111" t="s">
-        <v>78</v>
-      </c>
-      <c r="D111" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" t="s">
-        <v>78</v>
-      </c>
-      <c r="D112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E112" t="s">
-        <v>63</v>
-      </c>
+    <row r="146" spans="2:5">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="1"/>
@@ -2434,20 +2415,8 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:C150 E3:E150 D4:D150 A104:E109">
+  <conditionalFormatting sqref="A102:E107 A3:C148 E3:E148 D4:D148">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>($E3="Completed")</formula>
     </cfRule>
@@ -2470,7 +2439,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E150">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E148">
       <formula1>CompletedStatus</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Task List.xlsx
+++ b/trunk/Task List.xlsx
@@ -449,7 +449,397 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -834,8 +1224,8 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -857,7 +1247,7 @@
       </c>
       <c r="C1" s="4">
         <f>COUNTIF(E3:E149,"Completed")</f>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5">
         <f>COUNTIF(E3:E149, "Started")</f>
@@ -865,7 +1255,7 @@
       </c>
       <c r="E1" s="3">
         <f>COUNTIF(E3:E149, "Not Started")</f>
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1498,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -1512,7 +1902,7 @@
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -1526,7 +1916,7 @@
         <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -1540,7 +1930,7 @@
         <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -1554,7 +1944,7 @@
         <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -1568,7 +1958,7 @@
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -1582,7 +1972,7 @@
         <v>84</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -1596,7 +1986,7 @@
         <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -1610,7 +2000,7 @@
         <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -1624,7 +2014,7 @@
         <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -1638,7 +2028,7 @@
         <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -1652,7 +2042,7 @@
         <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -1778,7 +2168,7 @@
         <v>49</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -2416,25 +2806,25 @@
       <c r="E148" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A102:E107 A3:C148 E3:E148 D4:D148">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="A102:E107 A3:C148 D4:D148 E3:E148">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>($E3="Completed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>($E3="Started")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>($E3="Not Started")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>($E3="Completed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>($E3="Started")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>($E3="Not Started")</formula>
     </cfRule>
   </conditionalFormatting>
